--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teach_BigData/Teach_BigData 2025/Github/Big-Data-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0A818-0D71-B74B-B3A3-F6568B30252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110BCADD-70A7-FE42-9D6D-B4A5F4F9CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
   <sheets>
-    <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="COMPLETE" sheetId="2" r:id="rId1"/>
+    <sheet name="partial details" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">schedule!$A$1:$F$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'partial details'!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -350,6 +351,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>202050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2171122-447A-1F61-A4B2-AAD15D980EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16598900" cy="11174850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,14 +718,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468B9219-EE8F-DF40-AC46-5CAF4ADF540B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB01412-0709-F441-A659-43EF7D79934F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teach_BigData/Teach_BigData 2025/Github/Big-Data-2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Documents/GitHub/Learning-from-Big-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110BCADD-70A7-FE42-9D6D-B4A5F4F9CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD047B14-31DE-444B-871C-997410C7FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPLETE" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'partial details'!$A$1:$F$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468B9219-EE8F-DF40-AC46-5CAF4ADF540B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
